--- a/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>SNNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E8" s="3">
         <v>2200</v>
       </c>
       <c r="F8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H8" s="3">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1087,16 +1140,16 @@
         <v>700</v>
       </c>
       <c r="G17" s="3">
+        <v>700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1108,60 +1161,72 @@
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="3">
         <v>1500</v>
       </c>
       <c r="F18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1300</v>
       </c>
       <c r="N18" s="3">
         <v>1300</v>
       </c>
       <c r="O18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,63 +1243,71 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
         <v>-1100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="G20" s="3">
         <v>-1100</v>
       </c>
       <c r="H20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1200</v>
       </c>
       <c r="K20" s="3">
         <v>-1200</v>
       </c>
       <c r="L20" s="3">
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="M20" s="3">
         <v>-1200</v>
       </c>
       <c r="N20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3">
         <v>400</v>
       </c>
       <c r="F21" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G21" s="3">
         <v>400</v>
@@ -1243,7 +1316,7 @@
         <v>300</v>
       </c>
       <c r="I21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J21" s="3">
         <v>300</v>
@@ -1255,19 +1328,25 @@
         <v>300</v>
       </c>
       <c r="M21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,57 +1389,69 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>300</v>
       </c>
       <c r="H23" s="3">
         <v>300</v>
       </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K23" s="3">
         <v>200</v>
       </c>
       <c r="L23" s="3">
+        <v>200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>200</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
-        <v>200</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1372,10 +1463,10 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1384,22 +1475,28 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,19 +1539,25 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>300</v>
@@ -1463,7 +1566,7 @@
         <v>200</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
@@ -1475,30 +1578,36 @@
         <v>200</v>
       </c>
       <c r="M26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>200</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>200</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>300</v>
@@ -1507,7 +1616,7 @@
         <v>200</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
@@ -1519,19 +1628,25 @@
         <v>200</v>
       </c>
       <c r="M27" s="3">
+        <v>200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>200</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>200</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,27 +1709,27 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,63 +1839,75 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
         <v>1100</v>
       </c>
       <c r="F32" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G32" s="3">
         <v>1100</v>
       </c>
       <c r="H32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J32" s="3">
         <v>1300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1200</v>
       </c>
       <c r="K32" s="3">
         <v>1200</v>
       </c>
       <c r="L32" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M32" s="3">
         <v>1200</v>
       </c>
       <c r="N32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>300</v>
@@ -1771,13 +1916,13 @@
         <v>200</v>
       </c>
       <c r="I33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J33" s="3">
         <v>200</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>200</v>
@@ -1789,13 +1934,19 @@
         <v>200</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,19 +1989,25 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>300</v>
@@ -1859,13 +2016,13 @@
         <v>200</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J35" s="3">
         <v>200</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>200</v>
@@ -1877,62 +2034,74 @@
         <v>200</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2138,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F42" s="3">
         <v>3200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>2900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>2900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>2800</v>
       </c>
       <c r="I42" s="3">
         <v>2600</v>
       </c>
       <c r="J42" s="3">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K42" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L42" s="3">
         <v>2200</v>
       </c>
       <c r="M42" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="N42" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="O42" s="3">
         <v>2100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2484,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2600</v>
       </c>
       <c r="L48" s="3">
         <v>2600</v>
       </c>
       <c r="M48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,37 +2684,43 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>211800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>210200</v>
+      </c>
+      <c r="F54" s="3">
         <v>210500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>206300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>202200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>195300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>192700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>185200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>182400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>176200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>178300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>172400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>167300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>161400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2853,14 +3144,14 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -2869,10 +3160,10 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
@@ -2880,11 +3171,17 @@
       <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>189200</v>
+      </c>
+      <c r="F66" s="3">
         <v>190100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>186200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>182500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>175900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>174000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>166700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>164100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>157800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>166500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>160900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>156300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>150600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F72" s="3">
         <v>16400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>16000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>15700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>15500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>15200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>15000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>14800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>14600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>14000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>13800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>13700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F76" s="3">
         <v>20400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>19800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>19400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>18700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>18500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>18300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>18400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,68 +3894,80 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>300</v>
@@ -3587,13 +3976,13 @@
         <v>200</v>
       </c>
       <c r="I81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J81" s="3">
         <v>200</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>200</v>
@@ -3605,13 +3994,19 @@
         <v>200</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3640,7 +4037,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3661,19 +4058,25 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>9700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-26900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>7000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>5600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>23700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>SNNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2200</v>
       </c>
       <c r="F8" s="3">
         <v>2200</v>
@@ -756,40 +760,43 @@
         <v>2200</v>
       </c>
       <c r="H8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I8" s="3">
         <v>2100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2000</v>
       </c>
       <c r="J8" s="3">
         <v>2000</v>
       </c>
       <c r="K8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="3">
         <v>1900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1800</v>
       </c>
       <c r="M8" s="3">
         <v>1800</v>
       </c>
       <c r="N8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="O8" s="3">
         <v>1700</v>
       </c>
       <c r="P8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,16 +1151,17 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
@@ -1146,13 +1173,13 @@
         <v>700</v>
       </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
@@ -1167,21 +1194,24 @@
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E18" s="3">
         <v>1500</v>
@@ -1193,25 +1223,25 @@
         <v>1500</v>
       </c>
       <c r="H18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I18" s="3">
         <v>1400</v>
       </c>
       <c r="J18" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K18" s="3">
         <v>1500</v>
       </c>
       <c r="L18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M18" s="3">
         <v>1400</v>
       </c>
       <c r="N18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="O18" s="3">
         <v>1300</v>
@@ -1220,13 +1250,16 @@
         <v>1300</v>
       </c>
       <c r="Q18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R18" s="3">
         <v>4600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,16 +1278,17 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1200</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1100</v>
+        <v>-1300</v>
       </c>
       <c r="F20" s="3">
         <v>-1100</v>
@@ -1263,16 +1297,16 @@
         <v>-1100</v>
       </c>
       <c r="H20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1200</v>
       </c>
       <c r="L20" s="3">
         <v>-1200</v>
@@ -1281,45 +1315,48 @@
         <v>-1200</v>
       </c>
       <c r="N20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>300</v>
       </c>
       <c r="K21" s="3">
         <v>300</v>
@@ -1334,19 +1371,22 @@
         <v>300</v>
       </c>
       <c r="O21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P21" s="3">
         <v>200</v>
       </c>
       <c r="Q21" s="3">
+        <v>200</v>
+      </c>
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,16 +1447,16 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>400</v>
       </c>
       <c r="G23" s="3">
         <v>400</v>
       </c>
       <c r="H23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I23" s="3">
         <v>300</v>
@@ -1422,7 +1465,7 @@
         <v>300</v>
       </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L23" s="3">
         <v>200</v>
@@ -1431,22 +1474,25 @@
         <v>200</v>
       </c>
       <c r="N23" s="3">
+        <v>200</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
-        <v>200</v>
-      </c>
       <c r="Q23" s="3">
+        <v>200</v>
+      </c>
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1469,7 +1515,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1481,22 +1527,25 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,32 +1594,35 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>200</v>
       </c>
       <c r="F26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>300</v>
       </c>
       <c r="H26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
-        <v>200</v>
-      </c>
       <c r="K26" s="3">
         <v>200</v>
       </c>
@@ -1584,43 +1636,46 @@
         <v>200</v>
       </c>
       <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
-        <v>200</v>
-      </c>
       <c r="Q26" s="3">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>300</v>
       </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
-        <v>200</v>
-      </c>
       <c r="K27" s="3">
         <v>200</v>
       </c>
@@ -1634,19 +1689,22 @@
         <v>200</v>
       </c>
       <c r="O27" s="3">
+        <v>200</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
-        <v>200</v>
-      </c>
       <c r="Q27" s="3">
+        <v>200</v>
+      </c>
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,16 +1912,19 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F32" s="3">
         <v>1100</v>
@@ -1863,16 +1933,16 @@
         <v>1100</v>
       </c>
       <c r="H32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1200</v>
       </c>
       <c r="L32" s="3">
         <v>1200</v>
@@ -1881,46 +1951,49 @@
         <v>1200</v>
       </c>
       <c r="N32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>300</v>
       </c>
       <c r="H33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
-        <v>200</v>
-      </c>
       <c r="K33" s="3">
         <v>200</v>
       </c>
@@ -1928,25 +2001,28 @@
         <v>200</v>
       </c>
       <c r="M33" s="3">
+        <v>200</v>
+      </c>
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>200</v>
-      </c>
       <c r="O33" s="3">
+        <v>200</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
-        <v>200</v>
-      </c>
       <c r="Q33" s="3">
+        <v>200</v>
+      </c>
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,32 +2071,35 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>300</v>
       </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
-        <v>200</v>
-      </c>
       <c r="K35" s="3">
         <v>200</v>
       </c>
@@ -2028,80 +2107,86 @@
         <v>200</v>
       </c>
       <c r="M35" s="3">
+        <v>200</v>
+      </c>
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>200</v>
-      </c>
       <c r="O35" s="3">
+        <v>200</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
-        <v>200</v>
-      </c>
       <c r="Q35" s="3">
+        <v>200</v>
+      </c>
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2199,49 +2289,52 @@
         <v>3000</v>
       </c>
       <c r="E42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F42" s="3">
         <v>2800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2900</v>
       </c>
       <c r="H42" s="3">
         <v>2900</v>
       </c>
       <c r="I42" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J42" s="3">
         <v>2600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2100</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,37 +2595,40 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E48" s="3">
         <v>5400</v>
       </c>
       <c r="F48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2500</v>
       </c>
       <c r="K48" s="3">
         <v>2500</v>
       </c>
       <c r="L48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M48" s="3">
         <v>2600</v>
@@ -2529,19 +2637,22 @@
         <v>2600</v>
       </c>
       <c r="O48" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="P48" s="3">
         <v>2000</v>
       </c>
       <c r="Q48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2702,19 +2822,19 @@
         <v>2800</v>
       </c>
       <c r="F52" s="3">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="G52" s="3">
         <v>1700</v>
       </c>
       <c r="H52" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+      <c r="J52" s="3">
+        <v>1300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2722,8 +2842,8 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>237800</v>
+      </c>
+      <c r="E54" s="3">
         <v>211800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>210200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>210500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>206300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>202200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>195300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>192700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>185200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>182400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>176200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>178300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>172400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>167300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>161400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3150,11 +3296,11 @@
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3166,7 +3312,7 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -3177,11 +3323,14 @@
       <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E66" s="3">
         <v>191000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>189200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>190100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>186200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>182500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>175900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>174000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>166700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>164100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>157800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>166500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>160900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>156300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>150600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E72" s="3">
         <v>16800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E76" s="3">
         <v>20800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,87 +4089,93 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>300</v>
       </c>
       <c r="H81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
-        <v>200</v>
-      </c>
       <c r="K81" s="3">
         <v>200</v>
       </c>
@@ -3988,25 +4183,28 @@
         <v>200</v>
       </c>
       <c r="M81" s="3">
+        <v>200</v>
+      </c>
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>200</v>
-      </c>
       <c r="O81" s="3">
+        <v>200</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
-        <v>200</v>
-      </c>
       <c r="Q81" s="3">
+        <v>200</v>
+      </c>
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4043,26 +4242,26 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4070,13 +4269,16 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,32 +4615,33 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-600</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
       </c>
       <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -4428,25 +4649,28 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>23700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
-        <v>200</v>
-      </c>
       <c r="F102" s="3">
+        <v>200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>SNNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2200</v>
       </c>
       <c r="G8" s="3">
         <v>2200</v>
@@ -763,40 +767,43 @@
         <v>2200</v>
       </c>
       <c r="I8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J8" s="3">
         <v>2100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2000</v>
       </c>
       <c r="K8" s="3">
         <v>2000</v>
       </c>
       <c r="L8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M8" s="3">
         <v>1900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1800</v>
       </c>
       <c r="N8" s="3">
         <v>1800</v>
       </c>
       <c r="O8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P8" s="3">
         <v>1700</v>
       </c>
       <c r="Q8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,19 +1178,20 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>700</v>
@@ -1176,13 +1203,13 @@
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
@@ -1197,24 +1224,27 @@
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1500</v>
       </c>
       <c r="F18" s="3">
         <v>1500</v>
@@ -1226,25 +1256,25 @@
         <v>1500</v>
       </c>
       <c r="I18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J18" s="3">
         <v>1400</v>
       </c>
       <c r="K18" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L18" s="3">
         <v>1500</v>
       </c>
       <c r="M18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N18" s="3">
         <v>1400</v>
       </c>
       <c r="O18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="P18" s="3">
         <v>1300</v>
@@ -1253,13 +1283,16 @@
         <v>1300</v>
       </c>
       <c r="R18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S18" s="3">
         <v>4600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,19 +1312,20 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1100</v>
       </c>
       <c r="G20" s="3">
         <v>-1100</v>
@@ -1300,16 +1334,16 @@
         <v>-1100</v>
       </c>
       <c r="I20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1200</v>
       </c>
       <c r="M20" s="3">
         <v>-1200</v>
@@ -1318,48 +1352,51 @@
         <v>-1200</v>
       </c>
       <c r="O20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>300</v>
       </c>
       <c r="L21" s="3">
         <v>300</v>
@@ -1374,19 +1411,22 @@
         <v>300</v>
       </c>
       <c r="P21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="3">
         <v>200</v>
       </c>
       <c r="R21" s="3">
+        <v>200</v>
+      </c>
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,28 +1478,31 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E23" s="3">
         <v>200</v>
       </c>
       <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>400</v>
       </c>
       <c r="H23" s="3">
         <v>400</v>
       </c>
       <c r="I23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J23" s="3">
         <v>300</v>
@@ -1468,7 +1511,7 @@
         <v>300</v>
       </c>
       <c r="L23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M23" s="3">
         <v>200</v>
@@ -1477,33 +1520,36 @@
         <v>200</v>
       </c>
       <c r="O23" s="3">
+        <v>200</v>
+      </c>
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>200</v>
-      </c>
       <c r="R23" s="3">
+        <v>200</v>
+      </c>
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1518,7 +1564,7 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1530,22 +1576,25 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,35 +1646,38 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
-        <v>200</v>
-      </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3">
         <v>300</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
-        <v>200</v>
-      </c>
       <c r="L26" s="3">
         <v>200</v>
       </c>
@@ -1639,46 +1691,49 @@
         <v>200</v>
       </c>
       <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>200</v>
-      </c>
       <c r="R26" s="3">
+        <v>200</v>
+      </c>
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
-        <v>200</v>
-      </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
         <v>300</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
-        <v>200</v>
-      </c>
       <c r="L27" s="3">
         <v>200</v>
       </c>
@@ -1692,19 +1747,22 @@
         <v>200</v>
       </c>
       <c r="P27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>200</v>
-      </c>
       <c r="R27" s="3">
+        <v>200</v>
+      </c>
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1791,12 +1852,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,19 +1982,22 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1100</v>
       </c>
       <c r="G32" s="3">
         <v>1100</v>
@@ -1936,16 +2006,16 @@
         <v>1100</v>
       </c>
       <c r="I32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1200</v>
       </c>
       <c r="M32" s="3">
         <v>1200</v>
@@ -1954,49 +2024,52 @@
         <v>1200</v>
       </c>
       <c r="O32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
-        <v>200</v>
-      </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3">
         <v>300</v>
       </c>
       <c r="I33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
-        <v>200</v>
-      </c>
       <c r="L33" s="3">
         <v>200</v>
       </c>
@@ -2004,25 +2077,28 @@
         <v>200</v>
       </c>
       <c r="N33" s="3">
+        <v>200</v>
+      </c>
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>200</v>
-      </c>
       <c r="P33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>200</v>
-      </c>
       <c r="R33" s="3">
+        <v>200</v>
+      </c>
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,35 +2150,38 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
-        <v>200</v>
-      </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H35" s="3">
         <v>300</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
-        <v>200</v>
-      </c>
       <c r="L35" s="3">
         <v>200</v>
       </c>
@@ -2110,83 +2189,89 @@
         <v>200</v>
       </c>
       <c r="N35" s="3">
+        <v>200</v>
+      </c>
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>200</v>
-      </c>
       <c r="P35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>200</v>
-      </c>
       <c r="R35" s="3">
+        <v>200</v>
+      </c>
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E42" s="3">
         <v>3000</v>
       </c>
       <c r="F42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="3">
         <v>2800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3200</v>
-      </c>
-      <c r="H42" s="3">
-        <v>2900</v>
       </c>
       <c r="I42" s="3">
         <v>2900</v>
       </c>
       <c r="J42" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2100</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,40 +2703,43 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5400</v>
       </c>
       <c r="F48" s="3">
         <v>5400</v>
       </c>
       <c r="G48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2500</v>
       </c>
       <c r="L48" s="3">
         <v>2500</v>
       </c>
       <c r="M48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N48" s="3">
         <v>2600</v>
@@ -2640,19 +2748,22 @@
         <v>2600</v>
       </c>
       <c r="P48" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="Q48" s="3">
         <v>2000</v>
       </c>
       <c r="R48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,13 +2927,16 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="E52" s="3">
         <v>2800</v>
@@ -2825,19 +2945,19 @@
         <v>2800</v>
       </c>
       <c r="G52" s="3">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="H52" s="3">
         <v>1700</v>
       </c>
       <c r="I52" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
+      <c r="K52" s="3">
+        <v>1300</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
@@ -2845,8 +2965,8 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>221500</v>
+      </c>
+      <c r="E54" s="3">
         <v>237800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>211800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>210200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>210500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>206300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>202200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>195300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>192700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>185200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>182400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>176200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>178300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>172400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>167300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>161400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,34 +3419,37 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3315,7 +3461,7 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -3326,11 +3472,14 @@
       <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>198600</v>
+      </c>
+      <c r="E66" s="3">
         <v>216000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>191000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>189200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>190100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>186200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>182500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>175900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>174000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>166700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>164100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>157800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>166500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>160900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>156300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>150600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E72" s="3">
         <v>16900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E76" s="3">
         <v>21800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,93 +4281,99 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
-        <v>200</v>
-      </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H81" s="3">
         <v>300</v>
       </c>
       <c r="I81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
-        <v>200</v>
-      </c>
       <c r="L81" s="3">
         <v>200</v>
       </c>
@@ -4186,25 +4381,28 @@
         <v>200</v>
       </c>
       <c r="N81" s="3">
+        <v>200</v>
+      </c>
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>200</v>
-      </c>
       <c r="P81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>200</v>
-      </c>
       <c r="R81" s="3">
+        <v>200</v>
+      </c>
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4422,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4245,26 +4444,26 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4272,13 +4471,16 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,35 +4836,36 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-600</v>
       </c>
       <c r="G91" s="3">
         <v>-600</v>
       </c>
       <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -4652,25 +4873,28 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E100" s="3">
         <v>23500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>23700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
-        <v>200</v>
-      </c>
       <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>SNNF</t>
   </si>
@@ -665,12 +665,11 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -699,22 +698,22 @@
         <v>44196</v>
       </c>
       <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
-      </c>
-      <c r="J7" s="2">
-        <v>43555</v>
       </c>
       <c r="K7" s="2">
         <v>43465</v>
@@ -752,16 +751,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8800</v>
+        <v>2200</v>
       </c>
       <c r="E8" s="3">
         <v>2200</v>
       </c>
       <c r="F8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G8" s="3">
         <v>2100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2200</v>
       </c>
       <c r="H8" s="3">
         <v>2200</v>
@@ -770,7 +769,7 @@
         <v>2200</v>
       </c>
       <c r="J8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K8" s="3">
         <v>2000</v>
@@ -1185,16 +1184,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
@@ -1241,13 +1240,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7000</v>
+        <v>1900</v>
       </c>
       <c r="E18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>1700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1500</v>
       </c>
       <c r="G18" s="3">
         <v>1500</v>
@@ -1259,7 +1258,7 @@
         <v>1500</v>
       </c>
       <c r="J18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K18" s="3">
         <v>1400</v>
@@ -1319,16 +1318,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5900</v>
+        <v>-1500</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1100</v>
       </c>
       <c r="H20" s="3">
         <v>-1100</v>
@@ -1337,7 +1336,7 @@
         <v>-1100</v>
       </c>
       <c r="J20" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K20" s="3">
         <v>-1100</v>
@@ -1374,26 +1373,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1400</v>
-      </c>
-      <c r="E21" s="3">
-        <v>200</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="3">
         <v>300</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
-        <v>400</v>
-      </c>
       <c r="J21" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K21" s="3">
         <v>400</v>
@@ -1487,25 +1486,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F23" s="3">
         <v>200</v>
       </c>
       <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>400</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
       </c>
       <c r="J23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K23" s="3">
         <v>300</v>
@@ -1543,7 +1542,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1552,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1655,25 +1654,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
       <c r="G26" s="3">
         <v>200</v>
       </c>
       <c r="H26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
         <v>300</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K26" s="3">
         <v>300</v>
@@ -1711,25 +1710,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
       <c r="G27" s="3">
         <v>200</v>
       </c>
       <c r="H27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
         <v>300</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K27" s="3">
         <v>300</v>
@@ -1991,16 +1990,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5900</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1100</v>
       </c>
       <c r="H32" s="3">
         <v>1100</v>
@@ -2009,7 +2008,7 @@
         <v>1100</v>
       </c>
       <c r="J32" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K32" s="3">
         <v>1100</v>
@@ -2047,25 +2046,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>200</v>
-      </c>
       <c r="G33" s="3">
         <v>200</v>
       </c>
       <c r="H33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
         <v>300</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K33" s="3">
         <v>300</v>
@@ -2159,25 +2158,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>200</v>
-      </c>
       <c r="G35" s="3">
         <v>200</v>
       </c>
       <c r="H35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
         <v>300</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K35" s="3">
         <v>300</v>
@@ -2223,22 +2222,22 @@
         <v>44196</v>
       </c>
       <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
-      </c>
-      <c r="J38" s="2">
-        <v>43555</v>
       </c>
       <c r="K38" s="2">
         <v>43465</v>
@@ -2323,22 +2322,22 @@
         <v>4000</v>
       </c>
       <c r="E41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F41" s="3">
         <v>10300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2200</v>
       </c>
       <c r="K41" s="3">
         <v>3500</v>
@@ -2378,20 +2377,20 @@
       <c r="D42" s="3">
         <v>2900</v>
       </c>
-      <c r="E42" s="3">
-        <v>3000</v>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F42" s="3">
         <v>3000</v>
       </c>
       <c r="G42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H42" s="3">
         <v>2800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3200</v>
-      </c>
-      <c r="I42" s="3">
-        <v>2900</v>
       </c>
       <c r="J42" s="3">
         <v>2900</v>
@@ -2714,23 +2713,23 @@
       <c r="D48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>5300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5400</v>
       </c>
       <c r="G48" s="3">
         <v>5400</v>
       </c>
       <c r="H48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I48" s="3">
         <v>4900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4300</v>
       </c>
       <c r="K48" s="3">
         <v>3400</v>
@@ -2938,8 +2937,8 @@
       <c r="D52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3">
-        <v>2800</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F52" s="3">
         <v>2800</v>
@@ -2948,13 +2947,13 @@
         <v>2800</v>
       </c>
       <c r="H52" s="3">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="I52" s="3">
         <v>1700</v>
       </c>
       <c r="J52" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K52" s="3">
         <v>1300</v>
@@ -3051,22 +3050,22 @@
         <v>221500</v>
       </c>
       <c r="E54" s="3">
+        <v>231200</v>
+      </c>
+      <c r="F54" s="3">
         <v>237800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>211800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>210200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>210500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>206300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>202200</v>
       </c>
       <c r="K54" s="3">
         <v>195300</v>
@@ -3655,22 +3654,22 @@
         <v>198600</v>
       </c>
       <c r="E66" s="3">
+        <v>208900</v>
+      </c>
+      <c r="F66" s="3">
         <v>216000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>191000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>189200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>190100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>186200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>182500</v>
       </c>
       <c r="K66" s="3">
         <v>175900</v>
@@ -3956,23 +3955,23 @@
       <c r="D72" s="3">
         <v>17500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>16900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>15700</v>
       </c>
       <c r="K72" s="3">
         <v>15500</v>
@@ -4181,22 +4180,22 @@
         <v>22900</v>
       </c>
       <c r="E76" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F76" s="3">
         <v>21800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>19800</v>
       </c>
       <c r="K76" s="3">
         <v>19400</v>
@@ -4298,22 +4297,22 @@
         <v>44196</v>
       </c>
       <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
-      </c>
-      <c r="J80" s="2">
-        <v>43555</v>
       </c>
       <c r="K80" s="2">
         <v>43465</v>
@@ -4351,25 +4350,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>200</v>
-      </c>
       <c r="G81" s="3">
         <v>200</v>
       </c>
       <c r="H81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
         <v>300</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K81" s="3">
         <v>300</v>
@@ -4428,17 +4427,17 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4447,7 +4446,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4764,26 +4763,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1200</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>-600</v>
+        <v>700</v>
       </c>
       <c r="G89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2000</v>
       </c>
-      <c r="I89" s="3">
-        <v>900</v>
-      </c>
       <c r="J89" s="3">
-        <v>-500</v>
+        <v>400</v>
       </c>
       <c r="K89" s="3">
         <v>-1600</v>
@@ -4842,26 +4841,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-600</v>
+        <v>2200</v>
       </c>
       <c r="H91" s="3">
         <v>-600</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="J91" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K91" s="3">
         <v>-1000</v>
@@ -5010,26 +5009,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-19100</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>-300</v>
+        <v>-19400</v>
       </c>
       <c r="G94" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H94" s="3">
         <v>900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4700</v>
       </c>
-      <c r="I94" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J94" s="3">
-        <v>-7300</v>
+        <v>-9900</v>
       </c>
       <c r="K94" s="3">
         <v>-3800</v>
@@ -5312,26 +5311,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>9000</v>
-      </c>
-      <c r="E100" s="3">
-        <v>23500</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>2400</v>
+        <v>25900</v>
       </c>
       <c r="G100" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3">
-        <v>3200</v>
-      </c>
       <c r="J100" s="3">
-        <v>6500</v>
+        <v>9700</v>
       </c>
       <c r="K100" s="3">
         <v>4600</v>
@@ -5424,26 +5423,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>900</v>
-      </c>
-      <c r="E102" s="3">
-        <v>5700</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>1500</v>
+        <v>7200</v>
       </c>
       <c r="G102" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
-        <v>1500</v>
-      </c>
       <c r="J102" s="3">
-        <v>-1200</v>
+        <v>300</v>
       </c>
       <c r="K102" s="3">
         <v>-800</v>

--- a/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>SNNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,114 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
         <v>2200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2100</v>
       </c>
       <c r="H8" s="3">
         <v>2200</v>
@@ -769,40 +781,49 @@
         <v>2200</v>
       </c>
       <c r="J8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>5800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,8 +878,17 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +943,17 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +974,11 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1033,17 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1098,17 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1163,17 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1228,17 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,46 +1256,49 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1226,42 +1307,51 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>1700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1500</v>
       </c>
       <c r="J18" s="3">
         <v>1500</v>
       </c>
       <c r="K18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L18" s="3">
         <v>1500</v>
@@ -1273,25 +1363,34 @@
         <v>1400</v>
       </c>
       <c r="O18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S18" s="3">
         <v>1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>4600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,64 +1411,76 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1100</v>
       </c>
       <c r="K20" s="3">
         <v>-1100</v>
       </c>
       <c r="L20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q20" s="3">
         <v>-1200</v>
       </c>
       <c r="R20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="V20" s="3">
         <v>-4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,32 +1490,32 @@
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>200</v>
+      </c>
+      <c r="J21" s="3">
         <v>300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>500</v>
       </c>
       <c r="K21" s="3">
         <v>400</v>
       </c>
       <c r="L21" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M21" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O21" s="3">
         <v>300</v>
@@ -1413,19 +1524,28 @@
         <v>300</v>
       </c>
       <c r="Q21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S21" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="T21" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>200</v>
+      </c>
+      <c r="V21" s="3">
+        <v>800</v>
+      </c>
+      <c r="W21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,105 +1600,123 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>600</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>200</v>
       </c>
       <c r="H23" s="3">
         <v>300</v>
       </c>
       <c r="I23" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K23" s="3">
         <v>300</v>
       </c>
       <c r="L23" s="3">
+        <v>400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>400</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
+        <v>300</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>200</v>
       </c>
       <c r="S23" s="3">
+        <v>300</v>
+      </c>
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>200</v>
+      </c>
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1592,8 +1730,17 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,43 +1795,52 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
@@ -1693,54 +1849,63 @@
         <v>200</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
       </c>
       <c r="S26" s="3">
+        <v>200</v>
+      </c>
+      <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>200</v>
+      </c>
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
@@ -1749,19 +1914,28 @@
         <v>200</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
       </c>
       <c r="S27" s="3">
+        <v>200</v>
+      </c>
+      <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>200</v>
+      </c>
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,34 +1990,43 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1851,29 +2034,38 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +2120,17 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2185,147 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1100</v>
       </c>
       <c r="K32" s="3">
         <v>1100</v>
       </c>
       <c r="L32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1000</v>
       </c>
       <c r="Q32" s="3">
         <v>1200</v>
       </c>
       <c r="R32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="V32" s="3">
         <v>4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="W32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>200</v>
       </c>
       <c r="Q33" s="3">
+        <v>200</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>200</v>
+      </c>
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2380,152 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>200</v>
       </c>
       <c r="Q35" s="3">
+        <v>200</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>200</v>
+      </c>
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2546,11 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,120 +2571,141 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G41" s="3">
         <v>4000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>10300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>4600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>3100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>4000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>5600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>5800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>2900</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>3000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="J42" s="3">
         <v>3000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="K42" s="3">
         <v>2800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>3200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>2900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>2600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>2800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>2600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="Q42" s="3">
         <v>2200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="R42" s="3">
         <v>2300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>2200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>2100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="U42" s="3">
         <v>1800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="V42" s="3">
         <v>2100</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,8 +2760,17 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,8 +2825,17 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2593,8 +2890,17 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2649,8 +2955,17 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,64 +3020,82 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>5400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>5400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>4900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>2600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>2600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>2100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +3150,17 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +3215,17 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,52 +3280,61 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2985,8 +3345,17 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3410,82 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>217300</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
         <v>221500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>231200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>237800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>211800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>210200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>210500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>206300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>195300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>192700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>185200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>182400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>176200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>178300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>172400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>167300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>161400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3506,11 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,8 +3531,11 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3197,8 +3590,17 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,8 +3655,17 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3309,8 +3720,17 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3365,8 +3785,17 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3421,8 +3850,17 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3451,34 +3889,43 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
+        <v>200</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3980,17 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +4045,17 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +4110,82 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
         <v>198600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>208900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>216000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>191000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>189200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>190100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>186200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>175900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>174000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>166700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>164100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>157800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>166500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>160900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>156300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>150600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +4206,11 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +4265,17 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4330,17 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4395,17 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4460,82 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>17500</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>16900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>16800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>16600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>16400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>16000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>15500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>15200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>15000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>14800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>14600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>14000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>13800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>13700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>13600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4590,17 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4655,17 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4720,82 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
         <v>22900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>22300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>21800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>20800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>21100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>20400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>20100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>19400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>18700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>18500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>18300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>18400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>11800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>11500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>11000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>10800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4850,152 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>200</v>
       </c>
       <c r="Q81" s="3">
+        <v>200</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>200</v>
+      </c>
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +5016,11 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4433,14 +5030,14 @@
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4452,34 +5049,43 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +5140,17 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +5205,17 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +5270,17 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +5335,17 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,8 +5400,17 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4769,53 +5420,62 @@
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
-        <v>700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1600</v>
       </c>
       <c r="L89" s="3">
         <v>2000</v>
       </c>
       <c r="M89" s="3">
+        <v>400</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-7500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>9700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5496,11 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4847,53 +5510,62 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5620,17 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5685,17 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5015,53 +5705,62 @@
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
-        <v>-19400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>13300</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-9900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-5800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-6300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-7200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-26900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="W94" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5781,11 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5840,17 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5905,17 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5970,17 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,8 +6035,17 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5317,53 +6055,62 @@
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>25900</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>9700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>4600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>7000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>4700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>3700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>5600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>23700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,8 +6165,17 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5429,49 +6185,58 @@
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-3400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>4000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>-2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>SNNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,180 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1900</v>
       </c>
       <c r="G8" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H8" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I8" s="3">
         <v>2200</v>
       </c>
       <c r="J8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K8" s="3">
         <v>2200</v>
       </c>
       <c r="L8" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M8" s="3">
         <v>2200</v>
       </c>
       <c r="N8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +902,14 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +973,14 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1004,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1071,14 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1142,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1213,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1284,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,52 +1312,54 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
@@ -1316,42 +1371,48 @@
         <v>400</v>
       </c>
       <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1700</v>
       </c>
       <c r="G18" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H18" s="3">
         <v>1800</v>
       </c>
       <c r="I18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1500</v>
       </c>
       <c r="L18" s="3">
         <v>1500</v>
@@ -1360,37 +1421,43 @@
         <v>1500</v>
       </c>
       <c r="N18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="O18" s="3">
         <v>1500</v>
       </c>
       <c r="P18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S18" s="3">
         <v>1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>1300</v>
       </c>
       <c r="U18" s="3">
         <v>1300</v>
       </c>
       <c r="V18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X18" s="3">
         <v>4600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,37 +1481,39 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1300</v>
       </c>
       <c r="G20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1100</v>
       </c>
       <c r="M20" s="3">
         <v>-1100</v>
@@ -1453,34 +1522,40 @@
         <v>-1100</v>
       </c>
       <c r="O20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1200</v>
       </c>
       <c r="R20" s="3">
         <v>-1200</v>
       </c>
       <c r="S20" s="3">
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="T20" s="3">
         <v>-1200</v>
       </c>
       <c r="U20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-4000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1499,29 +1574,29 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>700</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>300</v>
       </c>
       <c r="Q21" s="3">
         <v>300</v>
@@ -1533,19 +1608,25 @@
         <v>300</v>
       </c>
       <c r="T21" s="3">
+        <v>300</v>
+      </c>
+      <c r="U21" s="3">
+        <v>300</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>200</v>
-      </c>
-      <c r="V21" s="3">
-        <v>800</v>
       </c>
       <c r="W21" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,102 +1690,114 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>500</v>
       </c>
       <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>400</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>600</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
+        <v>200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>200</v>
+      </c>
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
-        <v>200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>200</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
+        <v>400</v>
+      </c>
+      <c r="O23" s="3">
+        <v>400</v>
+      </c>
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>400</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>200</v>
       </c>
       <c r="R23" s="3">
         <v>200</v>
       </c>
       <c r="S23" s="3">
+        <v>200</v>
+      </c>
+      <c r="T23" s="3">
+        <v>200</v>
+      </c>
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>200</v>
-      </c>
-      <c r="V23" s="3">
-        <v>600</v>
       </c>
       <c r="W23" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
+      <c r="F24" s="3">
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1713,10 +1806,10 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1725,22 +1818,28 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,49 +1903,55 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>300</v>
       </c>
       <c r="G26" s="3">
+        <v>500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>500</v>
+      </c>
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>300</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>300</v>
       </c>
       <c r="N26" s="3">
         <v>300</v>
       </c>
       <c r="O26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="3">
         <v>200</v>
@@ -1858,60 +1963,66 @@
         <v>200</v>
       </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U26" s="3">
         <v>200</v>
       </c>
       <c r="V26" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>300</v>
       </c>
       <c r="G27" s="3">
+        <v>500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>500</v>
+      </c>
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
-        <v>300</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>300</v>
       </c>
       <c r="N27" s="3">
         <v>300</v>
       </c>
       <c r="O27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q27" s="3">
         <v>200</v>
@@ -1923,19 +2034,25 @@
         <v>200</v>
       </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U27" s="3">
         <v>200</v>
       </c>
       <c r="V27" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2116,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,36 +2148,36 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2187,14 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2258,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,37 +2329,43 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1300</v>
       </c>
       <c r="G32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1100</v>
       </c>
       <c r="M32" s="3">
         <v>1100</v>
@@ -2233,81 +2374,87 @@
         <v>1100</v>
       </c>
       <c r="O32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1200</v>
       </c>
       <c r="R32" s="3">
         <v>1200</v>
       </c>
       <c r="S32" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T32" s="3">
         <v>1200</v>
       </c>
       <c r="U32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W32" s="3">
         <v>1100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>4000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>300</v>
       </c>
       <c r="G33" s="3">
+        <v>500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>500</v>
+      </c>
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
-        <v>300</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>300</v>
       </c>
       <c r="N33" s="3">
         <v>300</v>
       </c>
       <c r="O33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q33" s="3">
         <v>200</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S33" s="3">
         <v>200</v>
@@ -2319,13 +2466,19 @@
         <v>200</v>
       </c>
       <c r="V33" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,55 +2542,61 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>300</v>
       </c>
       <c r="G35" s="3">
+        <v>500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>500</v>
+      </c>
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
-        <v>300</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>300</v>
       </c>
       <c r="N35" s="3">
         <v>300</v>
       </c>
       <c r="O35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q35" s="3">
         <v>200</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S35" s="3">
         <v>200</v>
@@ -2449,83 +2608,95 @@
         <v>200</v>
       </c>
       <c r="V35" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2720,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2747,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I41" s="3">
         <v>5700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>4000</v>
       </c>
-      <c r="H41" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1800</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2653,59 +2834,65 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>2900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2900</v>
-      </c>
-      <c r="N42" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O42" s="3">
-        <v>2800</v>
       </c>
       <c r="P42" s="3">
         <v>2600</v>
       </c>
       <c r="Q42" s="3">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="R42" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="S42" s="3">
         <v>2200</v>
       </c>
       <c r="T42" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="U42" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="V42" s="3">
         <v>2100</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X42" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2956,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3027,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +3098,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3169,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3240,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3043,59 +3260,65 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>5200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2600</v>
       </c>
       <c r="S48" s="3">
         <v>2600</v>
       </c>
       <c r="T48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V48" s="3">
         <v>2000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2100</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3382,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3453,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3524,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3303,44 +3544,44 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>3700</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2800</v>
       </c>
       <c r="K52" s="3">
         <v>2800</v>
       </c>
       <c r="L52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3354,8 +3595,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3666,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>229600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>222400</v>
+      </c>
+      <c r="F54" s="3">
         <v>214700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>217300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>222500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>226700</v>
+      </c>
+      <c r="J54" s="3">
         <v>221500</v>
       </c>
-      <c r="H54" s="3">
-        <v>231200</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>237800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>211800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>210200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>210500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>206300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>195300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>192700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>185200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>182400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>176200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>178300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>172400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>167300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>161400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3768,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3795,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3862,14 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3933,14 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,8 +4004,14 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +4075,14 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4146,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3898,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -3910,10 +4203,10 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>200</v>
@@ -3921,11 +4214,17 @@
       <c r="V62" s="3">
         <v>200</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>200</v>
+      </c>
+      <c r="X62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4288,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4359,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4430,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>208400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>200800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>191800</v>
       </c>
       <c r="G66" s="3">
+        <v>193200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>198900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>203700</v>
+      </c>
+      <c r="J66" s="3">
         <v>198600</v>
       </c>
-      <c r="H66" s="3">
-        <v>208900</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>216000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>191000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>189200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>190100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>186200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>175900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>174000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>166700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>164100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>157800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>166500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>160900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>156300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>150600</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4532,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4599,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4670,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4741,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4812,14 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4483,59 +4832,65 @@
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>17500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>16900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>16800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>16600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>16400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>16000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>15500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>15200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>15000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>14800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>14600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>14000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>13800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>13700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>13600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4954,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5025,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5096,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>21100</v>
       </c>
       <c r="E76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>22800</v>
+      </c>
+      <c r="G76" s="3">
         <v>24100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>23500</v>
+      </c>
+      <c r="I76" s="3">
         <v>22900</v>
       </c>
-      <c r="H76" s="3">
-        <v>22300</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K76" s="3">
         <v>21800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>20800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>21100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>20400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>20100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>19400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>18700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>18500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>18300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>18400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>11500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>11000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>10800</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,125 +5238,137 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>300</v>
       </c>
       <c r="G81" s="3">
+        <v>500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>500</v>
+      </c>
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
-        <v>300</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>300</v>
       </c>
       <c r="N81" s="3">
         <v>300</v>
       </c>
       <c r="O81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q81" s="3">
         <v>200</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S81" s="3">
         <v>200</v>
@@ -4989,13 +5380,19 @@
         <v>200</v>
       </c>
       <c r="V81" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5416,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5039,11 +5438,11 @@
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
-        <v>100</v>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -5058,7 +5457,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -5073,19 +5472,25 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5554,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5625,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5696,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5767,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5838,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5429,53 +5864,59 @@
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-7500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>9700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5940,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5519,53 +5962,59 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6078,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6149,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5714,53 +6175,59 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-19100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-9900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-6300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-3400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-7200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-26900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6251,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6318,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6389,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6460,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6531,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6064,53 +6557,59 @@
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K100" s="3">
         <v>23500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>9700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>7000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>4700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>3700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>5600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>23700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6673,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6194,49 +6699,55 @@
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>900</v>
+      </c>
+      <c r="K102" s="3">
         <v>5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M102" s="3">
-        <v>300</v>
       </c>
       <c r="N102" s="3">
         <v>-800</v>
       </c>
       <c r="O102" s="3">
+        <v>300</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>4000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>SNNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,133 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2100</v>
       </c>
       <c r="H8" s="3">
         <v>2100</v>
       </c>
       <c r="I8" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J8" s="3">
         <v>2200</v>
@@ -796,10 +800,10 @@
         <v>2200</v>
       </c>
       <c r="L8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M8" s="3">
         <v>2100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2200</v>
       </c>
       <c r="N8" s="3">
         <v>2200</v>
@@ -808,37 +812,40 @@
         <v>2200</v>
       </c>
       <c r="P8" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="Q8" s="3">
         <v>2000</v>
       </c>
       <c r="R8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S8" s="3">
         <v>1900</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1800</v>
       </c>
       <c r="T8" s="3">
         <v>1800</v>
       </c>
       <c r="U8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="V8" s="3">
         <v>1700</v>
       </c>
       <c r="W8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -908,8 +915,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,8 +989,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1019,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1077,8 +1091,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,8 +1165,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1219,8 +1239,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1313,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,40 +1340,41 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
@@ -1356,13 +1383,13 @@
         <v>700</v>
       </c>
       <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
@@ -1377,30 +1404,33 @@
         <v>400</v>
       </c>
       <c r="W17" s="3">
+        <v>400</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>2000</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
         <v>2000</v>
       </c>
       <c r="F18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="3">
         <v>1700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1800</v>
       </c>
       <c r="H18" s="3">
         <v>1800</v>
@@ -1409,13 +1439,13 @@
         <v>1800</v>
       </c>
       <c r="J18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1500</v>
       </c>
       <c r="M18" s="3">
         <v>1500</v>
@@ -1427,22 +1457,22 @@
         <v>1500</v>
       </c>
       <c r="P18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1500</v>
       </c>
       <c r="R18" s="3">
         <v>1500</v>
       </c>
       <c r="S18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T18" s="3">
         <v>1400</v>
       </c>
       <c r="U18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="V18" s="3">
         <v>1300</v>
@@ -1451,13 +1481,16 @@
         <v>1300</v>
       </c>
       <c r="X18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>4600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,40 +1516,41 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-1500</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>-1500</v>
       </c>
       <c r="F20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1300</v>
       </c>
       <c r="I20" s="3">
         <v>-1300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1100</v>
       </c>
       <c r="N20" s="3">
         <v>-1100</v>
@@ -1528,10 +1562,10 @@
         <v>-1100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1200</v>
       </c>
       <c r="S20" s="3">
         <v>-1200</v>
@@ -1540,22 +1574,25 @@
         <v>-1200</v>
       </c>
       <c r="U20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1577,29 +1614,29 @@
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>500</v>
       </c>
       <c r="O21" s="3">
         <v>500</v>
       </c>
       <c r="P21" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="3">
         <v>400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>300</v>
       </c>
       <c r="R21" s="3">
         <v>300</v>
@@ -1614,19 +1651,22 @@
         <v>300</v>
       </c>
       <c r="V21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W21" s="3">
         <v>200</v>
       </c>
       <c r="X21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1696,55 +1736,58 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
         <v>500</v>
       </c>
       <c r="F23" s="3">
+        <v>500</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>200</v>
       </c>
       <c r="L23" s="3">
         <v>200</v>
       </c>
       <c r="M23" s="3">
+        <v>200</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>400</v>
       </c>
       <c r="O23" s="3">
         <v>400</v>
       </c>
       <c r="P23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q23" s="3">
         <v>300</v>
       </c>
       <c r="R23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S23" s="3">
         <v>200</v>
@@ -1753,27 +1796,30 @@
         <v>200</v>
       </c>
       <c r="U23" s="3">
+        <v>200</v>
+      </c>
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1791,7 +1837,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1800,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1812,7 +1858,7 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1824,22 +1870,25 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,22 +1958,25 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>400</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
       </c>
       <c r="F26" s="3">
+        <v>400</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>500</v>
       </c>
       <c r="H26" s="3">
         <v>500</v>
@@ -1933,19 +1985,19 @@
         <v>500</v>
       </c>
       <c r="J26" s="3">
+        <v>500</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>200</v>
       </c>
       <c r="N26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>300</v>
@@ -1954,7 +2006,7 @@
         <v>300</v>
       </c>
       <c r="Q26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
@@ -1969,33 +2021,36 @@
         <v>200</v>
       </c>
       <c r="V26" s="3">
+        <v>200</v>
+      </c>
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>400</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
         <v>400</v>
       </c>
       <c r="F27" s="3">
+        <v>400</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>500</v>
       </c>
       <c r="H27" s="3">
         <v>500</v>
@@ -2004,19 +2059,19 @@
         <v>500</v>
       </c>
       <c r="J27" s="3">
+        <v>500</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>200</v>
       </c>
       <c r="N27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>300</v>
@@ -2025,7 +2080,7 @@
         <v>300</v>
       </c>
       <c r="Q27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
@@ -2040,19 +2095,22 @@
         <v>200</v>
       </c>
       <c r="V27" s="3">
+        <v>200</v>
+      </c>
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2180,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2154,8 +2215,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2163,11 +2224,11 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2175,12 +2236,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2193,8 +2254,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,40 +2402,43 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>1500</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>1500</v>
       </c>
       <c r="F32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1300</v>
       </c>
       <c r="I32" s="3">
         <v>1300</v>
       </c>
       <c r="J32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1100</v>
       </c>
       <c r="N32" s="3">
         <v>1100</v>
@@ -2380,10 +2450,10 @@
         <v>1100</v>
       </c>
       <c r="Q32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R32" s="3">
         <v>1300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1200</v>
       </c>
       <c r="S32" s="3">
         <v>1200</v>
@@ -2392,36 +2462,39 @@
         <v>1200</v>
       </c>
       <c r="U32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>400</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
         <v>400</v>
       </c>
       <c r="F33" s="3">
+        <v>400</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>500</v>
       </c>
       <c r="H33" s="3">
         <v>500</v>
@@ -2430,19 +2503,19 @@
         <v>500</v>
       </c>
       <c r="J33" s="3">
+        <v>500</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>200</v>
       </c>
       <c r="N33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>300</v>
@@ -2451,7 +2524,7 @@
         <v>300</v>
       </c>
       <c r="Q33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R33" s="3">
         <v>200</v>
@@ -2460,25 +2533,28 @@
         <v>200</v>
       </c>
       <c r="T33" s="3">
+        <v>200</v>
+      </c>
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,22 +2624,25 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>400</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
         <v>400</v>
       </c>
       <c r="F35" s="3">
+        <v>400</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>500</v>
       </c>
       <c r="H35" s="3">
         <v>500</v>
@@ -2572,19 +2651,19 @@
         <v>500</v>
       </c>
       <c r="J35" s="3">
+        <v>500</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>200</v>
       </c>
       <c r="N35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>300</v>
@@ -2593,7 +2672,7 @@
         <v>300</v>
       </c>
       <c r="Q35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R35" s="3">
         <v>200</v>
@@ -2602,101 +2681,107 @@
         <v>200</v>
       </c>
       <c r="T35" s="3">
+        <v>200</v>
+      </c>
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,79 +2835,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1800</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2843,56 +2933,59 @@
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>2900</v>
-      </c>
-      <c r="K42" s="3">
-        <v>3000</v>
       </c>
       <c r="L42" s="3">
         <v>3000</v>
       </c>
       <c r="M42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N42" s="3">
         <v>2800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2100</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2962,8 +3055,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3033,8 +3129,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3104,8 +3203,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3175,8 +3277,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3246,8 +3351,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3269,35 +3377,35 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>5200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5400</v>
       </c>
       <c r="M48" s="3">
         <v>5400</v>
       </c>
       <c r="N48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O48" s="3">
         <v>4900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2500</v>
       </c>
       <c r="R48" s="3">
         <v>2500</v>
       </c>
       <c r="S48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="T48" s="3">
         <v>2600</v>
@@ -3306,19 +3414,22 @@
         <v>2600</v>
       </c>
       <c r="V48" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="W48" s="3">
         <v>2000</v>
       </c>
       <c r="X48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y48" s="3">
         <v>2100</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3388,8 +3499,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,8 +3647,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3553,11 +3673,11 @@
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>3700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2800</v>
       </c>
       <c r="L52" s="3">
         <v>2800</v>
@@ -3566,25 +3686,25 @@
         <v>2800</v>
       </c>
       <c r="N52" s="3">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="O52" s="3">
         <v>1700</v>
       </c>
       <c r="P52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3601,8 +3721,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3795,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
         <v>229600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>222400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>214700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>217300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>222500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>226700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>221500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>237800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>211800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>210200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>210500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>206300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>195300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>192700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>185200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>182400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>176200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>178300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>172400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>167300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>161400</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,8 +3927,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3868,8 +3999,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3939,8 +4073,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4010,8 +4147,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4081,8 +4221,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4152,8 +4295,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4197,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -4209,7 +4355,7 @@
         <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>200</v>
@@ -4220,11 +4366,14 @@
       <c r="X62" s="3">
         <v>200</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4591,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
         <v>208400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>191800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>193200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>198900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>203700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>198600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>216000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>191000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>189200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>190100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>186200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>175900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>174000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>166700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>164100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>157800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>166500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>160900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>156300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>150600</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,8 +4989,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4841,56 +5015,59 @@
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>17500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13600</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5285,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
         <v>21100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>22900</v>
       </c>
       <c r="J76" s="3">
         <v>22900</v>
       </c>
       <c r="K76" s="3">
+        <v>22900</v>
+      </c>
+      <c r="L76" s="3">
         <v>21800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10800</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,98 +5433,104 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>400</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
         <v>400</v>
       </c>
       <c r="F81" s="3">
+        <v>400</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>500</v>
       </c>
       <c r="H81" s="3">
         <v>500</v>
@@ -5344,19 +5539,19 @@
         <v>500</v>
       </c>
       <c r="J81" s="3">
+        <v>500</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>200</v>
       </c>
       <c r="N81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>300</v>
@@ -5365,7 +5560,7 @@
         <v>300</v>
       </c>
       <c r="Q81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R81" s="3">
         <v>200</v>
@@ -5374,25 +5569,28 @@
         <v>200</v>
       </c>
       <c r="T81" s="3">
+        <v>200</v>
+      </c>
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,8 +5616,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5441,11 +5640,11 @@
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -5463,20 +5662,20 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
@@ -5484,13 +5683,16 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,8 +6058,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5867,56 +6084,59 @@
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,52 +6162,53 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-600</v>
       </c>
       <c r="N91" s="3">
         <v>-600</v>
       </c>
       <c r="O91" s="3">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
       <c r="P91" s="3">
         <v>-1000</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5996,25 +6217,28 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,8 +6382,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6178,56 +6408,59 @@
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-26900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6486,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6324,8 +6558,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,8 +6780,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6560,56 +6806,59 @@
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>9000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>23500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>23700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,8 +6928,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6702,52 +6954,55 @@
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>SNNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,139 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
-        <v>44377</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>2800</v>
       </c>
       <c r="E8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2200</v>
       </c>
       <c r="K8" s="3">
         <v>2200</v>
@@ -803,10 +806,10 @@
         <v>2200</v>
       </c>
       <c r="M8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N8" s="3">
         <v>2100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2200</v>
       </c>
       <c r="O8" s="3">
         <v>2200</v>
@@ -815,37 +818,40 @@
         <v>2200</v>
       </c>
       <c r="Q8" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="R8" s="3">
         <v>2000</v>
       </c>
       <c r="S8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T8" s="3">
         <v>1900</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1800</v>
       </c>
       <c r="U8" s="3">
         <v>1800</v>
       </c>
       <c r="V8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="W8" s="3">
         <v>1700</v>
       </c>
       <c r="X8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -918,8 +924,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1094,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1242,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1316,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,43 +1366,44 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
@@ -1386,13 +1412,13 @@
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
@@ -1407,48 +1433,51 @@
         <v>400</v>
       </c>
       <c r="X17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>1800</v>
       </c>
       <c r="E18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1800</v>
       </c>
       <c r="J18" s="3">
         <v>1800</v>
       </c>
       <c r="K18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1500</v>
       </c>
       <c r="N18" s="3">
         <v>1500</v>
@@ -1460,22 +1489,22 @@
         <v>1500</v>
       </c>
       <c r="Q18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R18" s="3">
         <v>1400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1500</v>
       </c>
       <c r="S18" s="3">
         <v>1500</v>
       </c>
       <c r="T18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="U18" s="3">
         <v>1400</v>
       </c>
       <c r="V18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="W18" s="3">
         <v>1300</v>
@@ -1484,13 +1513,16 @@
         <v>1300</v>
       </c>
       <c r="Y18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>4600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,43 +1549,44 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F20" s="3">
         <v>-1500</v>
       </c>
       <c r="G20" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="H20" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="I20" s="3">
         <v>-1300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1100</v>
       </c>
       <c r="O20" s="3">
         <v>-1100</v>
@@ -1565,10 +1598,10 @@
         <v>-1100</v>
       </c>
       <c r="R20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1200</v>
       </c>
       <c r="T20" s="3">
         <v>-1200</v>
@@ -1577,22 +1610,25 @@
         <v>-1200</v>
       </c>
       <c r="V20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1617,29 +1653,29 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>500</v>
       </c>
       <c r="P21" s="3">
         <v>500</v>
       </c>
       <c r="Q21" s="3">
+        <v>500</v>
+      </c>
+      <c r="R21" s="3">
         <v>400</v>
-      </c>
-      <c r="R21" s="3">
-        <v>300</v>
       </c>
       <c r="S21" s="3">
         <v>300</v>
@@ -1654,19 +1690,22 @@
         <v>300</v>
       </c>
       <c r="W21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X21" s="3">
         <v>200</v>
       </c>
       <c r="Y21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z21" s="3">
         <v>800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1739,8 +1778,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1748,49 +1790,49 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>600</v>
+      </c>
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>500</v>
       </c>
       <c r="J23" s="3">
         <v>600</v>
       </c>
       <c r="K23" s="3">
+        <v>600</v>
+      </c>
+      <c r="L23" s="3">
         <v>400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>200</v>
       </c>
       <c r="M23" s="3">
         <v>200</v>
       </c>
       <c r="N23" s="3">
+        <v>200</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>400</v>
       </c>
       <c r="P23" s="3">
         <v>400</v>
       </c>
       <c r="Q23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R23" s="3">
         <v>300</v>
       </c>
       <c r="S23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T23" s="3">
         <v>200</v>
@@ -1799,22 +1841,25 @@
         <v>200</v>
       </c>
       <c r="V23" s="3">
+        <v>200</v>
+      </c>
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1822,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1840,7 +1885,7 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1849,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1861,7 +1906,7 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1873,22 +1918,25 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,46 +2009,49 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>500</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>500</v>
       </c>
       <c r="J26" s="3">
         <v>500</v>
       </c>
       <c r="K26" s="3">
+        <v>500</v>
+      </c>
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>200</v>
       </c>
       <c r="O26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>300</v>
@@ -2009,7 +2060,7 @@
         <v>300</v>
       </c>
       <c r="R26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S26" s="3">
         <v>200</v>
@@ -2024,57 +2075,60 @@
         <v>200</v>
       </c>
       <c r="W26" s="3">
+        <v>200</v>
+      </c>
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>500</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>500</v>
       </c>
       <c r="J27" s="3">
         <v>500</v>
       </c>
       <c r="K27" s="3">
+        <v>500</v>
+      </c>
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>200</v>
       </c>
       <c r="O27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>300</v>
@@ -2083,7 +2137,7 @@
         <v>300</v>
       </c>
       <c r="R27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S27" s="3">
         <v>200</v>
@@ -2098,19 +2152,22 @@
         <v>200</v>
       </c>
       <c r="W27" s="3">
+        <v>200</v>
+      </c>
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2218,8 +2278,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2227,11 +2287,11 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2239,12 +2299,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2257,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,43 +2471,46 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F32" s="3">
         <v>1500</v>
       </c>
       <c r="G32" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="H32" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="I32" s="3">
         <v>1300</v>
       </c>
       <c r="J32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1100</v>
       </c>
       <c r="O32" s="3">
         <v>1100</v>
@@ -2453,10 +2522,10 @@
         <v>1100</v>
       </c>
       <c r="R32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S32" s="3">
         <v>1300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1200</v>
       </c>
       <c r="T32" s="3">
         <v>1200</v>
@@ -2465,60 +2534,63 @@
         <v>1200</v>
       </c>
       <c r="V32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>500</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>500</v>
       </c>
       <c r="J33" s="3">
         <v>500</v>
       </c>
       <c r="K33" s="3">
+        <v>500</v>
+      </c>
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>200</v>
       </c>
       <c r="O33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3">
         <v>300</v>
@@ -2527,7 +2599,7 @@
         <v>300</v>
       </c>
       <c r="R33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S33" s="3">
         <v>200</v>
@@ -2536,25 +2608,28 @@
         <v>200</v>
       </c>
       <c r="U33" s="3">
+        <v>200</v>
+      </c>
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,46 +2702,49 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>500</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>500</v>
       </c>
       <c r="J35" s="3">
         <v>500</v>
       </c>
       <c r="K35" s="3">
+        <v>500</v>
+      </c>
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>200</v>
       </c>
       <c r="O35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3">
         <v>300</v>
@@ -2675,7 +2753,7 @@
         <v>300</v>
       </c>
       <c r="R35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S35" s="3">
         <v>200</v>
@@ -2684,104 +2762,110 @@
         <v>200</v>
       </c>
       <c r="U35" s="3">
+        <v>200</v>
+      </c>
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
-        <v>44377</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E41" s="3">
         <v>20700</v>
-      </c>
-      <c r="E41" s="3">
-        <v>5400</v>
       </c>
       <c r="F41" s="3">
         <v>4400</v>
       </c>
       <c r="G41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6500</v>
       </c>
-      <c r="I41" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1800</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2921,8 +3010,8 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
+      <c r="F42" s="3">
+        <v>2500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
@@ -2936,56 +3025,59 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>2900</v>
-      </c>
-      <c r="L42" s="3">
-        <v>3000</v>
       </c>
       <c r="M42" s="3">
         <v>3000</v>
       </c>
       <c r="N42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O42" s="3">
         <v>2800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2100</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3058,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3132,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3206,8 +3304,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3280,8 +3381,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3354,8 +3458,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3365,8 +3472,8 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+      <c r="F48" s="3">
+        <v>5600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
@@ -3380,35 +3487,35 @@
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>5200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5400</v>
       </c>
       <c r="N48" s="3">
         <v>5400</v>
       </c>
       <c r="O48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P48" s="3">
         <v>4900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2500</v>
       </c>
       <c r="S48" s="3">
         <v>2500</v>
       </c>
       <c r="T48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="U48" s="3">
         <v>2600</v>
@@ -3417,19 +3524,22 @@
         <v>2600</v>
       </c>
       <c r="W48" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="X48" s="3">
         <v>2000</v>
       </c>
       <c r="Y48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z48" s="3">
         <v>2100</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3502,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3661,8 +3780,8 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+      <c r="F52" s="3">
+        <v>5600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -3676,11 +3795,11 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>3700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2800</v>
       </c>
       <c r="M52" s="3">
         <v>2800</v>
@@ -3689,25 +3808,25 @@
         <v>2800</v>
       </c>
       <c r="O52" s="3">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="P52" s="3">
         <v>1700</v>
       </c>
       <c r="Q52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3724,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
+      <c r="D54" s="3">
+        <v>240600</v>
       </c>
       <c r="E54" s="3">
+        <v>248200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>234500</v>
+      </c>
+      <c r="G54" s="3">
         <v>229600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>222400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>214700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>217300</v>
       </c>
-      <c r="I54" s="3">
-        <v>222500</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>226700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>221500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>237800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>211800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>210200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>210500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>206300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>195300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>192700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>185200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>182400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>176200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>178300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>172400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>167300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>161400</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,8 +4057,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4002,8 +4132,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4076,8 +4209,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4150,8 +4286,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4224,8 +4363,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4298,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4346,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
@@ -4358,7 +4503,7 @@
         <v>100</v>
       </c>
       <c r="V62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W62" s="3">
         <v>200</v>
@@ -4369,11 +4514,14 @@
       <c r="Y62" s="3">
         <v>200</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>219000</v>
       </c>
       <c r="E66" s="3">
+        <v>226300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>213400</v>
+      </c>
+      <c r="G66" s="3">
         <v>208400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>191800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>193200</v>
       </c>
-      <c r="I66" s="3">
-        <v>198900</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>203700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>198600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>216000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>191000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>189200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>190100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>186200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>175900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>174000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>166700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>164100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>157800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>166500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>160900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>156300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>150600</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4918,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,8 +5162,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5003,8 +5176,8 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
+      <c r="F72" s="3">
+        <v>20900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
@@ -5018,56 +5191,59 @@
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>17500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13600</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>21600</v>
       </c>
       <c r="E76" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G76" s="3">
         <v>21100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>21600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>22800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>24100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>23500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>22900</v>
       </c>
       <c r="K76" s="3">
         <v>22900</v>
       </c>
       <c r="L76" s="3">
+        <v>22900</v>
+      </c>
+      <c r="M76" s="3">
         <v>21800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10800</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,125 +5624,131 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
-        <v>44377</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>500</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>500</v>
       </c>
       <c r="J81" s="3">
         <v>500</v>
       </c>
       <c r="K81" s="3">
+        <v>500</v>
+      </c>
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>200</v>
       </c>
       <c r="O81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>300</v>
@@ -5563,7 +5757,7 @@
         <v>300</v>
       </c>
       <c r="R81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S81" s="3">
         <v>200</v>
@@ -5572,25 +5766,28 @@
         <v>200</v>
       </c>
       <c r="U81" s="3">
+        <v>200</v>
+      </c>
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,37 +5814,38 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -5665,20 +5863,20 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
@@ -5686,13 +5884,16 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6181,37 +6401,37 @@
         <v>-600</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-600</v>
       </c>
       <c r="O91" s="3">
         <v>-600</v>
       </c>
       <c r="P91" s="3">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
       <c r="Q91" s="3">
         <v>-1000</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6220,25 +6440,28 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-9700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-26900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6561,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>9000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>23500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>5600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>23700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6931,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>SNNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,146 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2200</v>
       </c>
       <c r="L8" s="3">
         <v>2200</v>
@@ -809,10 +813,10 @@
         <v>2200</v>
       </c>
       <c r="N8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O8" s="3">
         <v>2100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2200</v>
       </c>
       <c r="P8" s="3">
         <v>2200</v>
@@ -821,37 +825,40 @@
         <v>2200</v>
       </c>
       <c r="R8" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="S8" s="3">
         <v>2000</v>
       </c>
       <c r="T8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U8" s="3">
         <v>1900</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1800</v>
       </c>
       <c r="V8" s="3">
         <v>1800</v>
       </c>
       <c r="W8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="X8" s="3">
         <v>1700</v>
       </c>
       <c r="Y8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,8 +934,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1014,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,8 +1284,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,8 +1393,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1376,37 +1403,37 @@
         <v>1000</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
@@ -1415,13 +1442,13 @@
         <v>700</v>
       </c>
       <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
@@ -1436,51 +1463,54 @@
         <v>400</v>
       </c>
       <c r="Y17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E18" s="3">
         <v>1800</v>
       </c>
       <c r="F18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G18" s="3">
         <v>2100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2000</v>
       </c>
       <c r="H18" s="3">
         <v>2000</v>
       </c>
       <c r="I18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J18" s="3">
         <v>1700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1800</v>
       </c>
       <c r="K18" s="3">
         <v>1800</v>
       </c>
       <c r="L18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1500</v>
       </c>
       <c r="O18" s="3">
         <v>1500</v>
@@ -1492,22 +1522,22 @@
         <v>1500</v>
       </c>
       <c r="R18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S18" s="3">
         <v>1400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1500</v>
       </c>
       <c r="T18" s="3">
         <v>1500</v>
       </c>
       <c r="U18" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="V18" s="3">
         <v>1400</v>
       </c>
       <c r="W18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="X18" s="3">
         <v>1300</v>
@@ -1516,13 +1546,16 @@
         <v>1300</v>
       </c>
       <c r="Z18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA18" s="3">
         <v>4600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,19 +1583,20 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E20" s="3">
         <v>-1600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G20" s="3">
         <v>-1500</v>
@@ -1571,25 +1605,25 @@
         <v>-1500</v>
       </c>
       <c r="I20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1100</v>
       </c>
       <c r="P20" s="3">
         <v>-1100</v>
@@ -1601,10 +1635,10 @@
         <v>-1100</v>
       </c>
       <c r="S20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1200</v>
       </c>
       <c r="U20" s="3">
         <v>-1200</v>
@@ -1613,22 +1647,25 @@
         <v>-1200</v>
       </c>
       <c r="W20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1656,29 +1693,29 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
-        <v>200</v>
-      </c>
       <c r="N21" s="3">
+        <v>200</v>
+      </c>
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
-      </c>
-      <c r="P21" s="3">
-        <v>500</v>
       </c>
       <c r="Q21" s="3">
         <v>500</v>
       </c>
       <c r="R21" s="3">
+        <v>500</v>
+      </c>
+      <c r="S21" s="3">
         <v>400</v>
-      </c>
-      <c r="S21" s="3">
-        <v>300</v>
       </c>
       <c r="T21" s="3">
         <v>300</v>
@@ -1693,19 +1730,22 @@
         <v>300</v>
       </c>
       <c r="X21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y21" s="3">
         <v>200</v>
       </c>
       <c r="Z21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA21" s="3">
         <v>800</v>
       </c>
-      <c r="AA21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,8 +1821,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1793,49 +1836,49 @@
         <v>200</v>
       </c>
       <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>500</v>
       </c>
       <c r="H23" s="3">
         <v>500</v>
       </c>
       <c r="I23" s="3">
+        <v>500</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>600</v>
       </c>
       <c r="K23" s="3">
         <v>600</v>
       </c>
       <c r="L23" s="3">
+        <v>600</v>
+      </c>
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
-        <v>200</v>
-      </c>
       <c r="N23" s="3">
         <v>200</v>
       </c>
       <c r="O23" s="3">
+        <v>200</v>
+      </c>
+      <c r="P23" s="3">
         <v>300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>400</v>
       </c>
       <c r="Q23" s="3">
         <v>400</v>
       </c>
       <c r="R23" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S23" s="3">
         <v>300</v>
       </c>
       <c r="T23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U23" s="3">
         <v>200</v>
@@ -1844,22 +1887,25 @@
         <v>200</v>
       </c>
       <c r="W23" s="3">
+        <v>200</v>
+      </c>
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>200</v>
-      </c>
       <c r="Z23" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>600</v>
       </c>
-      <c r="AA23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1870,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1888,7 +1934,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1897,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -1909,7 +1955,7 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1921,22 +1967,25 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,8 +2061,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2024,37 +2076,37 @@
         <v>200</v>
       </c>
       <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>400</v>
       </c>
       <c r="H26" s="3">
         <v>400</v>
       </c>
       <c r="I26" s="3">
+        <v>400</v>
+      </c>
+      <c r="J26" s="3">
         <v>300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>500</v>
       </c>
       <c r="K26" s="3">
         <v>500</v>
       </c>
       <c r="L26" s="3">
+        <v>500</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>200</v>
-      </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
       <c r="P26" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="3">
         <v>300</v>
@@ -2063,7 +2115,7 @@
         <v>300</v>
       </c>
       <c r="S26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T26" s="3">
         <v>200</v>
@@ -2078,19 +2130,22 @@
         <v>200</v>
       </c>
       <c r="X26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>200</v>
-      </c>
       <c r="Z26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>500</v>
       </c>
-      <c r="AA26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2101,37 +2156,37 @@
         <v>200</v>
       </c>
       <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>400</v>
       </c>
       <c r="H27" s="3">
         <v>400</v>
       </c>
       <c r="I27" s="3">
+        <v>400</v>
+      </c>
+      <c r="J27" s="3">
         <v>300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>500</v>
       </c>
       <c r="K27" s="3">
         <v>500</v>
       </c>
       <c r="L27" s="3">
+        <v>500</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>200</v>
-      </c>
       <c r="O27" s="3">
         <v>200</v>
       </c>
       <c r="P27" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="3">
         <v>300</v>
@@ -2140,7 +2195,7 @@
         <v>300</v>
       </c>
       <c r="S27" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T27" s="3">
         <v>200</v>
@@ -2155,19 +2210,22 @@
         <v>200</v>
       </c>
       <c r="X27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>200</v>
-      </c>
       <c r="Z27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA27" s="3">
         <v>500</v>
       </c>
-      <c r="AA27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2281,8 +2342,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2290,11 +2351,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2302,12 +2363,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,19 +2541,22 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E32" s="3">
         <v>1600</v>
       </c>
       <c r="F32" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G32" s="3">
         <v>1500</v>
@@ -2495,25 +2565,25 @@
         <v>1500</v>
       </c>
       <c r="I32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1100</v>
       </c>
       <c r="P32" s="3">
         <v>1100</v>
@@ -2525,10 +2595,10 @@
         <v>1100</v>
       </c>
       <c r="S32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T32" s="3">
         <v>1300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1200</v>
       </c>
       <c r="U32" s="3">
         <v>1200</v>
@@ -2537,22 +2607,25 @@
         <v>1200</v>
       </c>
       <c r="W32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>4000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2563,37 +2636,37 @@
         <v>200</v>
       </c>
       <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>400</v>
       </c>
       <c r="H33" s="3">
         <v>400</v>
       </c>
       <c r="I33" s="3">
+        <v>400</v>
+      </c>
+      <c r="J33" s="3">
         <v>300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>500</v>
       </c>
       <c r="K33" s="3">
         <v>500</v>
       </c>
       <c r="L33" s="3">
+        <v>500</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>200</v>
-      </c>
       <c r="O33" s="3">
         <v>200</v>
       </c>
       <c r="P33" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="3">
         <v>300</v>
@@ -2602,7 +2675,7 @@
         <v>300</v>
       </c>
       <c r="S33" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T33" s="3">
         <v>200</v>
@@ -2611,25 +2684,28 @@
         <v>200</v>
       </c>
       <c r="V33" s="3">
+        <v>200</v>
+      </c>
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
-        <v>200</v>
-      </c>
       <c r="X33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>200</v>
-      </c>
       <c r="Z33" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA33" s="3">
         <v>500</v>
       </c>
-      <c r="AA33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,8 +2781,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2717,37 +2796,37 @@
         <v>200</v>
       </c>
       <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>400</v>
       </c>
       <c r="H35" s="3">
         <v>400</v>
       </c>
       <c r="I35" s="3">
+        <v>400</v>
+      </c>
+      <c r="J35" s="3">
         <v>300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>500</v>
       </c>
       <c r="K35" s="3">
         <v>500</v>
       </c>
       <c r="L35" s="3">
+        <v>500</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>200</v>
-      </c>
       <c r="O35" s="3">
         <v>200</v>
       </c>
       <c r="P35" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="3">
         <v>300</v>
@@ -2756,7 +2835,7 @@
         <v>300</v>
       </c>
       <c r="S35" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T35" s="3">
         <v>200</v>
@@ -2765,107 +2844,113 @@
         <v>200</v>
       </c>
       <c r="V35" s="3">
+        <v>200</v>
+      </c>
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
-        <v>200</v>
-      </c>
       <c r="X35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>200</v>
-      </c>
       <c r="Z35" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA35" s="3">
         <v>500</v>
       </c>
-      <c r="AA35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E41" s="3">
         <v>6700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1800</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3010,12 +3100,12 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>2500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3028,56 +3118,59 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>2900</v>
-      </c>
-      <c r="M42" s="3">
-        <v>3000</v>
       </c>
       <c r="N42" s="3">
         <v>3000</v>
       </c>
       <c r="O42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P42" s="3">
         <v>2800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2100</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3153,8 +3246,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,8 +3326,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3307,8 +3406,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3384,8 +3486,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,8 +3566,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,12 +3580,12 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>5600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3490,35 +3598,35 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>5200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5400</v>
       </c>
       <c r="O48" s="3">
         <v>5400</v>
       </c>
       <c r="P48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2500</v>
       </c>
       <c r="T48" s="3">
         <v>2500</v>
       </c>
       <c r="U48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="V48" s="3">
         <v>2600</v>
@@ -3527,19 +3635,22 @@
         <v>2600</v>
       </c>
       <c r="X48" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="Y48" s="3">
         <v>2000</v>
       </c>
       <c r="Z48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA48" s="3">
         <v>2100</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3726,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3886,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3780,12 +3900,12 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>5600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3798,11 +3918,11 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>3700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2800</v>
       </c>
       <c r="N52" s="3">
         <v>2800</v>
@@ -3811,25 +3931,25 @@
         <v>2800</v>
       </c>
       <c r="P52" s="3">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="Q52" s="3">
         <v>1700</v>
       </c>
       <c r="R52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3846,8 +3966,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>249200</v>
+      </c>
+      <c r="E54" s="3">
         <v>240600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>248200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>234500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>229600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>222400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>214700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>217300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>226700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>221500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>237800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>211800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>210200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>210500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>206300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>195300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>192700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>185200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>182400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>176200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>178300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>172400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>167300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>161400</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,8 +4188,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4135,8 +4266,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4212,8 +4346,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4289,8 +4426,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4366,8 +4506,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4443,8 +4586,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4494,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
@@ -4506,7 +4652,7 @@
         <v>100</v>
       </c>
       <c r="W62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X62" s="3">
         <v>200</v>
@@ -4517,11 +4663,14 @@
       <c r="Z62" s="3">
         <v>200</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E66" s="3">
         <v>219000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>226300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>213400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>208400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>191800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>193200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>203700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>198600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>216000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>191000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>189200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>190100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>186200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>175900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>174000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>166700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>164100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>157800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>166500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>160900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>156300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>150600</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,8 +5336,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5176,12 +5350,12 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>20900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
@@ -5194,56 +5368,59 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>17500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13600</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E76" s="3">
         <v>21600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>22900</v>
       </c>
       <c r="L76" s="3">
         <v>22900</v>
       </c>
       <c r="M76" s="3">
+        <v>22900</v>
+      </c>
+      <c r="N76" s="3">
         <v>21800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10800</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,90 +5816,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5721,37 +5916,37 @@
         <v>200</v>
       </c>
       <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>400</v>
       </c>
       <c r="H81" s="3">
         <v>400</v>
       </c>
       <c r="I81" s="3">
+        <v>400</v>
+      </c>
+      <c r="J81" s="3">
         <v>300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>500</v>
       </c>
       <c r="K81" s="3">
         <v>500</v>
       </c>
       <c r="L81" s="3">
+        <v>500</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>200</v>
-      </c>
       <c r="O81" s="3">
         <v>200</v>
       </c>
       <c r="P81" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q81" s="3">
         <v>300</v>
@@ -5760,7 +5955,7 @@
         <v>300</v>
       </c>
       <c r="S81" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T81" s="3">
         <v>200</v>
@@ -5769,25 +5964,28 @@
         <v>200</v>
       </c>
       <c r="V81" s="3">
+        <v>200</v>
+      </c>
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
-        <v>200</v>
-      </c>
       <c r="X81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>200</v>
-      </c>
       <c r="Z81" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA81" s="3">
         <v>500</v>
       </c>
-      <c r="AA81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6013,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5841,14 +6040,14 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -5866,20 +6065,20 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
@@ -5887,13 +6086,16 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,8 +6491,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6303,59 +6520,62 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6603,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6398,7 +6619,7 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -6413,28 +6634,28 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-600</v>
       </c>
       <c r="P91" s="3">
         <v>-600</v>
       </c>
       <c r="Q91" s="3">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
       <c r="R91" s="3">
         <v>-1000</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6443,25 +6664,28 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,8 +6841,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6640,59 +6870,62 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-9700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-26900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,8 +7271,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7054,59 +7300,62 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>9000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>23500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>9700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>5600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>23700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,8 +7431,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7208,55 +7460,58 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
-        <v>200</v>
-      </c>
       <c r="P102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>
